--- a/数据整理/stocks/A股/深证主板/002382-蓝帆医疗.xlsx
+++ b/数据整理/stocks/A股/深证主板/002382-蓝帆医疗.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>10.97</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>94.55</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>1.74</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1909</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>5</v>
       </c>
     </row>
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>94.55</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1.74</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0809</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>5</v>
       </c>
     </row>
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005994</t>
+          <t>005632</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>国投瑞银中证500指数量化增强A</t>
+          <t>鹏华量化先锋混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>88.89</t>
+          <t>2.29</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>8</v>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0481</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -586,15 +626,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>91.04</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>4.39</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>4</v>
       </c>
     </row>
@@ -604,25 +654,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>007089</t>
+          <t>005994</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>国投瑞银中证500指数量化增强C</t>
+          <t>国投瑞银中证500指数量化增强A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>88.89</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1.09</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>8</v>
       </c>
     </row>
@@ -632,25 +692,35 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>007413</t>
+          <t>167705</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>长城中证500指数增强C</t>
+          <t>德邦量化新锐股票(LOF) A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>91.04</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4.39</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>4</v>
       </c>
     </row>
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>167705</t>
+          <t>007089</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>德邦量化新锐股票(LOF) A</t>
+          <t>国投瑞银中证500指数量化增强C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>92.31</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.42</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>4</v>
+          <t>88.89</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -688,26 +768,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>167706</t>
+          <t>004546</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>德邦量化新锐股票(LOF) C</t>
+          <t>建信量化优享定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>92.31</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.42</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>4</v>
+          <t>31.11</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -716,26 +806,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>004546</t>
+          <t>007413</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>建信量化优享定期开放灵活配置混合</t>
+          <t>长城中证500指数增强C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>31.11</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>3</v>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -744,26 +844,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>005632</t>
+          <t>167706</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>鹏华量化先锋混合</t>
+          <t>德邦量化新锐股票(LOF) C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>92.76</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2.10</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>3</v>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -777,7 +887,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -798,15 +908,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -828,15 +948,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>13.07</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>94.53</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>1.72</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2248</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>6</v>
       </c>
     </row>
@@ -856,15 +986,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>94.53</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1.72</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0800</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>6</v>
       </c>
     </row>
@@ -884,15 +1024,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>53.95</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>0.87</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>9</v>
       </c>
     </row>
@@ -912,15 +1062,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>53.95</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>0.87</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>9</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002382-蓝帆医疗.xlsx
+++ b/数据整理/stocks/A股/深证主板/002382-蓝帆医疗.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1087,4 +1088,288 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>515860</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实中证新兴科技100策略ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0839</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002076</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>浙商中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.59</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0678</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005994</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国投瑞银中证500指数量化增强A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.10</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0465</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007386</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>浙商中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.59</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007089</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国投瑞银中证500指数量化增强C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.10</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004135</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>申万菱信量化成长混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.08</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002382-蓝帆医疗.xlsx
+++ b/数据整理/stocks/A股/深证主板/002382-蓝帆医疗.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1372,4 +1373,212 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002076</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>浙商中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.79</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1544</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>163110</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>申万菱信量化小盘股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.97</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0748</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>515860</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实中证新兴科技100策略ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.21</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0602</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007386</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>浙商中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0477</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002382-蓝帆医疗.xlsx
+++ b/数据整理/stocks/A股/深证主板/002382-蓝帆医疗.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1581,4 +1582,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002382-蓝帆医疗.xlsx
+++ b/数据整理/stocks/A股/深证主板/002382-蓝帆医疗.xlsx
@@ -1606,12 +1606,12 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>持有市值(亿元)</t>
         </is>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002382-蓝帆医疗.xlsx
+++ b/数据整理/stocks/A股/深证主板/002382-蓝帆医疗.xlsx
@@ -6,11 +6,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,433 +454,97 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001556</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>天弘中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>10.97</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.55</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.74</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1909</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>5</v>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.34</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001557</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>天弘中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>4.65</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.55</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.74</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0809</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.24</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005632</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>鹏华量化先锋混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2.29</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>92.76</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.10</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0481</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>006048</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>长城中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.68</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>91.04</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.39</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0299</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>005994</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>国投瑞银中证500指数量化增强A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1.75</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>88.89</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0191</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>167705</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>德邦量化新锐股票(LOF) A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.44</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>92.31</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.42</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0062</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>007089</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>国投瑞银中证500指数量化增强C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.45</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>88.89</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0049</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>004546</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>建信量化优享定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.39</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>31.11</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0038</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>007413</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>长城中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>91.04</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>4.39</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0035</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>167706</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>德邦量化新锐股票(LOF) C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>92.31</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>1.42</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0020</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>4</v>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.39</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -941,36 +605,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001556</t>
+          <t>002076</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>天弘中证500指数增强A</t>
+          <t>浙商中证500指数增强A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>13.07</t>
+          <t>13.79</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.53</t>
+          <t>89.00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2248</t>
+          <t>0.1544</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -979,36 +643,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001557</t>
+          <t>163110</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>天弘中证500指数增强C</t>
+          <t>申万菱信量化小盘股票(LOF)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.65</t>
+          <t>5.75</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.53</t>
+          <t>90.97</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0800</t>
+          <t>0.0748</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1017,32 +681,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>008838</t>
+          <t>515860</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>德邦量化对冲策略灵活配置混合A</t>
+          <t>嘉实中证新兴科技100策略ETF</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>2.65</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>53.95</t>
+          <t>99.21</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0075</t>
+          <t>0.0602</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1055,36 +719,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>008839</t>
+          <t>007386</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>德邦量化对冲策略灵活配置混合C</t>
+          <t>浙商中证500指数增强C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.39</t>
+          <t>4.26</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>53.95</t>
+          <t>89.00</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0034</t>
+          <t>0.0477</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1433,36 +1097,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002076</t>
+          <t>001556</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>浙商中证500指数增强A</t>
+          <t>天弘中证500指数增强A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>13.79</t>
+          <t>13.07</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>89.00</t>
+          <t>94.53</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1544</t>
+          <t>0.2248</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1471,36 +1135,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>163110</t>
+          <t>001557</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>申万菱信量化小盘股票(LOF)</t>
+          <t>天弘中证500指数增强C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5.75</t>
+          <t>4.65</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>90.97</t>
+          <t>94.53</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0748</t>
+          <t>0.0800</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1509,32 +1173,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>515860</t>
+          <t>008838</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>嘉实中证新兴科技100策略ETF</t>
+          <t>德邦量化对冲策略灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.65</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>99.21</t>
+          <t>53.95</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0602</t>
+          <t>0.0075</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1547,36 +1211,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>007386</t>
+          <t>008839</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>浙商中证500指数增强C</t>
+          <t>德邦量化对冲策略灵活配置混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4.26</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>89.00</t>
+          <t>53.95</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0477</t>
+          <t>0.0034</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1590,96 +1254,432 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>001556</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>天弘中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.97</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1909</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001557</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0809</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005632</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华量化先锋混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0481</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006048</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长城中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>4</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.34</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005994</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国投瑞银中证500指数量化增强A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.89</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>167705</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>德邦量化新锐股票(LOF) A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="D3" t="n">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007089</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国投瑞银中证500指数量化增强C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.89</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004546</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>建信量化优享定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>31.11</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007413</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长城中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>4</v>
       </c>
-      <c r="D4" t="n">
-        <v>0.32</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>10</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.39</v>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>167706</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>德邦量化新锐股票(LOF) C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002382-蓝帆医疗.xlsx
+++ b/数据整理/stocks/A股/深证主板/002382-蓝帆医疗.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0.34</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>0.24</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>0.32</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>10</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.39</v>
       </c>
     </row>
@@ -549,6 +566,138 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008602</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>方正富邦新兴成长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.26</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0415</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008603</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>方正富邦新兴成长混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.26</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -756,7 +905,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1040,7 +1189,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1248,7 +1397,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
